--- a/Assets/Tables/character.xlsx
+++ b/Assets/Tables/character.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD002CCE-EA4D-4681-AD99-47B6A0124412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C56FA2-22C9-4668-B45C-5042715CA285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Character" sheetId="1" r:id="rId1"/>
-    <sheet name="CharacterStat" sheetId="2" r:id="rId2"/>
-    <sheet name="Spirit" sheetId="3" r:id="rId3"/>
-    <sheet name="SpiritExp" sheetId="4" r:id="rId4"/>
-    <sheet name="Skill" sheetId="5" r:id="rId5"/>
+    <sheet name="character" sheetId="1" r:id="rId1"/>
+    <sheet name="characterStat" sheetId="2" r:id="rId2"/>
+    <sheet name="spirit" sheetId="3" r:id="rId3"/>
+    <sheet name="spiritExp" sheetId="4" r:id="rId4"/>
+    <sheet name="skill" sheetId="5" r:id="rId5"/>
     <sheet name="_참고타입" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1280,7 +1280,7 @@
   <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3399,7 +3399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCE6278-CDF7-4462-907D-C25F7EE30E92}">
   <dimension ref="A2:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -4915,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DC92A6-9D01-4454-BB5C-87637A94390D}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Tables/character.xlsx
+++ b/Assets/Tables/character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6058E-A59C-4223-B8F1-6A8AA99A635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80D6A8B-10B0-443F-9B33-3183EB7BD1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42450" yWindow="8415" windowWidth="12150" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>[23000050,23000060,23000070]</t>
-  </si>
-  <si>
     <t>피존</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Shooter</t>
   </si>
   <si>
-    <t>[24000010,24000020,23000010]</t>
-  </si>
-  <si>
     <t>구스티</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>Mage</t>
   </si>
   <si>
-    <t>[23000020,23000030,23000040]</t>
-  </si>
-  <si>
     <t>핑키</t>
   </si>
   <si>
@@ -186,15 +177,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillCard1Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillCard2Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>specialSkillKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23000050, 23000060, 23000070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000010, 24000020, 23000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23000020, 23000030, 23000040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*skillCard1Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,37 +546,37 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -599,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -610,22 +613,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -636,22 +639,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -662,22 +665,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -688,22 +691,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -714,22 +717,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -763,30 +766,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -795,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -818,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -827,24 +830,24 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -859,24 +862,24 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -885,18 +888,18 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -905,18 +908,18 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>5</v>
